--- a/tut06/output/Attendance_report_consolidated.xlsx
+++ b/tut06/output/Attendance_report_consolidated.xlsx
@@ -434,87 +434,87 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>28/07</t>
+          <t>28-07</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>01/08</t>
+          <t>01-08</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>04/08</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>08/08</t>
+          <t>08-08</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>11/08</t>
+          <t>11-08</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>15/08</t>
+          <t>15-08</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>18/08</t>
+          <t>18-08</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>22/08</t>
+          <t>22-08</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>25/08</t>
+          <t>25-08</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>29/08</t>
+          <t>29-08</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>01/09</t>
+          <t>01-09</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>05/09</t>
+          <t>05-09</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>08/09</t>
+          <t>08-09</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>12/09</t>
+          <t>12-09</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>15/09</t>
+          <t>15-09</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>26/09</t>
+          <t>26-09</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>29/09</t>
+          <t>29-09</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
